--- a/dados.xlsx
+++ b/dados.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,568 +476,560 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7459</v>
+        <v>0.8371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6706</v>
+        <v>0.7664</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8232</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7887999999999999</v>
-      </c>
+        <v>0.9107</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.796</v>
+        <v>0.8753</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9617</v>
+        <v>0.8305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8857</v>
+        <v>0.7516</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9841</v>
-      </c>
+        <v>0.9035</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.9617</v>
+        <v>0.8683999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45964</v>
+        <v>45994</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8215</v>
+        <v>0.8158</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7475000000000001</v>
+        <v>0.7451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8958</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8284</v>
-      </c>
+        <v>0.8865</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.8767</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45965</v>
+        <v>45995</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8137</v>
+        <v>0.8191000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.739</v>
+        <v>0.7476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8842</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8106</v>
-      </c>
+        <v>0.8903</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.8683999999999999</v>
+        <v>0.8564000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45966</v>
+        <v>45996</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7984</v>
+        <v>0.8034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7207</v>
+        <v>0.723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8677</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8286</v>
-      </c>
+        <v>0.8751</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.8521</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45967</v>
+        <v>45997</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7996</v>
+        <v>0.7546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7247</v>
+        <v>0.6817</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8812</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8005</v>
-      </c>
+        <v>0.8307</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.8532999999999999</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45968</v>
+        <v>45998</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7859</v>
+        <v>0.9655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7122000000000001</v>
+        <v>0.8917</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8637</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.781</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.8387</v>
+        <v>0.9655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45969</v>
+        <v>45999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7317</v>
+        <v>0.8235</v>
       </c>
       <c r="C9" t="n">
-        <v>0.658</v>
+        <v>0.7479</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7551</v>
-      </c>
+        <v>0.8943</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.7809</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45970</v>
+        <v>46000</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9475</v>
+        <v>0.8169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8704</v>
+        <v>0.745</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.987</v>
-      </c>
+        <v>0.8911</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0.9475</v>
+        <v>0.8541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45971</v>
+        <v>46001</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8073</v>
+        <v>0.8022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7359</v>
+        <v>0.7272999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8822</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.7924</v>
-      </c>
+        <v>0.8737</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.8616</v>
+        <v>0.8388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45972</v>
+        <v>46002</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7996</v>
+        <v>0.8055</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7248</v>
+        <v>0.7341</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8711</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.7729</v>
-      </c>
+        <v>0.8786</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.8532999999999999</v>
+        <v>0.8421999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45973</v>
+        <v>46003</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7842</v>
+        <v>0.7897999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7101</v>
+        <v>0.7096</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8606</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.722</v>
-      </c>
+        <v>0.86</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0.8369</v>
+        <v>0.8258</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45974</v>
+        <v>46004</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7855</v>
+        <v>0.741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7121</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8596</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.787</v>
-      </c>
+        <v>0.8132</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.8383</v>
+        <v>0.7748</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45975</v>
+        <v>46005</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7718</v>
+        <v>0.9519</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6991000000000001</v>
+        <v>0.8773</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8408</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0.8237</v>
+        <v>0.9519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45976</v>
+        <v>46006</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7176</v>
+        <v>0.8099</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6388</v>
+        <v>0.74</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7929</v>
+        <v>0.8844</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.7658</v>
+        <v>0.8468</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45977</v>
+        <v>46007</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9334</v>
+        <v>0.8033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.86</v>
+        <v>0.7277</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.881</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.9334</v>
+        <v>0.8399</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45978</v>
+        <v>46008</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7932</v>
+        <v>0.7886</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7159</v>
+        <v>0.7096</v>
       </c>
       <c r="D18" t="n">
-        <v>0.867</v>
+        <v>0.8637</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.8465</v>
+        <v>0.8245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45979</v>
+        <v>46009</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7854</v>
+        <v>0.7919</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7186</v>
+        <v>0.7161999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8645</v>
+        <v>0.8658</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.8381999999999999</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45980</v>
+        <v>46010</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7701</v>
+        <v>0.7762</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6973</v>
+        <v>0.697</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8442</v>
+        <v>0.8492</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.8219</v>
+        <v>0.8116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45981</v>
+        <v>46011</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7713</v>
+        <v>0.7274</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6892</v>
+        <v>0.6522</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8431999999999999</v>
+        <v>0.7968</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.8231000000000001</v>
+        <v>0.7606000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45982</v>
+        <v>46012</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.9383</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6851</v>
+        <v>0.8666</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8333</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.8085</v>
+        <v>0.9383</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45983</v>
+        <v>46013</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7034</v>
+        <v>0.7963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6282</v>
+        <v>0.7258</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7834</v>
+        <v>0.8699</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.7507</v>
+        <v>0.8326</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45984</v>
+        <v>46014</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9192</v>
+        <v>0.7897</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8487</v>
+        <v>0.7134</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9974</v>
+        <v>0.8673</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.9192</v>
+        <v>0.8257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45985</v>
+        <v>46015</v>
       </c>
       <c r="B25" t="n">
-        <v>0.779</v>
+        <v>0.775</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7075</v>
+        <v>0.6983</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8509</v>
+        <v>0.8486</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.8314</v>
+        <v>0.8103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45986</v>
+        <v>46016</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7713</v>
+        <v>0.7783</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6917</v>
+        <v>0.7034</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8459</v>
+        <v>0.8528</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.8231000000000001</v>
+        <v>0.8138</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45987</v>
+        <v>46017</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7559</v>
+        <v>0.7625999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6863</v>
+        <v>0.6884</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8357</v>
+        <v>0.8341</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.8067</v>
+        <v>0.7974</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45988</v>
+        <v>46018</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7572</v>
+        <v>0.7138</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6808</v>
+        <v>0.6403</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8292</v>
+        <v>0.7894</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.8081</v>
+        <v>0.7463</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45989</v>
+        <v>46019</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7435</v>
+        <v>0.9247</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6583</v>
+        <v>0.8561</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8161</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.7935</v>
+        <v>0.9247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45990</v>
+        <v>46020</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6893</v>
+        <v>0.7882</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6189</v>
+        <v>0.7081</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7625999999999999</v>
+        <v>0.8652</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0.7356</v>
+        <v>0.8241000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45991</v>
+        <v>46021</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9051</v>
+        <v>0.7816</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8275</v>
+        <v>0.7038</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9836</v>
+        <v>0.8564000000000001</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>0.9051</v>
+        <v>0.8172</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7669</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6922</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8393</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0.8018999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,529 +1080,512 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8022</v>
+        <v>0.7887999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7963256537518151</v>
+        <v>0.7458728414655722</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7263902260629845</v>
+        <v>0.6728213806020549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8641458236363563</v>
+        <v>0.8182945914814503</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45932</v>
+        <v>45963</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8562</v>
+        <v>0.9841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7922265695885975</v>
+        <v>0.9616650462357349</v>
       </c>
       <c r="D3" t="n">
-        <v>0.726752825992352</v>
+        <v>0.8865179219730673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.859239067610663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45933</v>
+        <v>45964</v>
       </c>
       <c r="B4" t="n">
-        <v>0.854</v>
+        <v>0.8284</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7820627697015917</v>
+        <v>0.8214822758449449</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7115073626323732</v>
+        <v>0.7451069563495289</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8482872348485464</v>
+        <v>0.8986341994198426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45934</v>
+        <v>45965</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7608</v>
+        <v>0.8106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7262752025703963</v>
+        <v>0.8137045627501645</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6621536546403473</v>
+        <v>0.73802871213759</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7918092119235534</v>
+        <v>0.8894246091903897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45935</v>
+        <v>45966</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9603</v>
+        <v>0.8286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9429575612131472</v>
+        <v>0.7983827130068388</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8786844529158024</v>
+        <v>0.7261059099738356</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.8779182928834366</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45936</v>
+        <v>45967</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8209</v>
+        <v>0.8005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8065930500645986</v>
+        <v>0.7996077009918927</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7432616551516836</v>
+        <v>0.7296764709130172</v>
       </c>
       <c r="E7" t="n">
-        <v>0.874557906627124</v>
+        <v>0.8749138927039026</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45937</v>
+        <v>45968</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8556</v>
+        <v>0.781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7986146636713369</v>
+        <v>0.7859214562970946</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7281810283076184</v>
+        <v>0.7072877519099825</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8648985215368956</v>
+        <v>0.864444901258333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45938</v>
+        <v>45969</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9124</v>
+        <v>0.7551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7837730529421261</v>
+        <v>0.7317250169409738</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7176509092669315</v>
+        <v>0.6545143219492858</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8551655151582722</v>
+        <v>0.8047212900946682</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45939</v>
+        <v>45970</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8559</v>
+        <v>0.987</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7796739687788727</v>
+        <v>0.9475172217115516</v>
       </c>
       <c r="D10" t="n">
-        <v>0.711922729218903</v>
+        <v>0.8785957668753636</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8541333083905582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45940</v>
+        <v>45971</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8245</v>
+        <v>0.7924</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7695101688918082</v>
+        <v>0.8073344513208913</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7033311902839045</v>
+        <v>0.7349785735441403</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8422429993729504</v>
+        <v>0.8829446714630763</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45941</v>
+        <v>45972</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7339</v>
+        <v>0.7729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7137226017607552</v>
+        <v>0.7995567382261395</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6458778858031744</v>
+        <v>0.7175975833645379</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7829713560341286</v>
+        <v>0.8730461429319597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45942</v>
+        <v>45973</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9560999999999999</v>
+        <v>0.722</v>
       </c>
       <c r="C13" t="n">
-        <v>0.930404960403124</v>
+        <v>0.7842348884829072</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8610299941070618</v>
+        <v>0.7095368642233448</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9932615106867309</v>
+        <v>0.8594371340984818</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45943</v>
+        <v>45974</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7919</v>
+        <v>0.7704</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7940404492547837</v>
+        <v>0.785459876467737</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7277927060056802</v>
+        <v>0.7156618547462716</v>
       </c>
       <c r="E14" t="n">
-        <v>0.863006455396833</v>
+        <v>0.8616888395210464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45944</v>
+        <v>45975</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8568</v>
+        <v>0.7571</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7860620628617478</v>
+        <v>0.7717736317726241</v>
       </c>
       <c r="D15" t="n">
-        <v>0.717163844749127</v>
+        <v>0.6924031543626598</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8537054233077667</v>
+        <v>0.8411792691623939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45945</v>
+        <v>45976</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8232</v>
+        <v>0.8229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7712204521320691</v>
+        <v>0.7175771924167899</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7098476849464795</v>
+        <v>0.6374451712643319</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8385197901986068</v>
+        <v>0.79458488777806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45946</v>
+        <v>45977</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8107</v>
+        <v>0.9127</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7671213679689565</v>
+        <v>0.9333693971873686</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7023416456963507</v>
+        <v>0.8590685772932306</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8409727209658119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45947</v>
+        <v>45978</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7735</v>
+        <v>0.7376</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7569575680822356</v>
+        <v>0.7931866267964501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6939771990549104</v>
+        <v>0.718114046941856</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8280475945042172</v>
+        <v>0.8735398084155741</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45948</v>
+        <v>45979</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8014</v>
+        <v>0.7814</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7011700009508902</v>
+        <v>0.7854089137018059</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6293101860597554</v>
+        <v>0.7127392866916694</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7707930653244298</v>
+        <v>0.8572146511465071</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45949</v>
+        <v>45980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9225</v>
+        <v>0.7696</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9178523595933671</v>
+        <v>0.7700870639584277</v>
       </c>
       <c r="D20" t="n">
-        <v>0.850113995035529</v>
+        <v>0.6884932848852516</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9876211864737535</v>
+        <v>0.8414194535798178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45950</v>
+        <v>45981</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7494</v>
+        <v>0.87</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7814878484447637</v>
+        <v>0.7713120519433927</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7108097202762962</v>
+        <v>0.6992428812968378</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8544110255478394</v>
+        <v>0.843153159199646</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45951</v>
+        <v>45982</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6875</v>
+        <v>0.7655</v>
       </c>
       <c r="C22" t="n">
-        <v>0.773509462051841</v>
+        <v>0.7576258072486697</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7043377969795707</v>
+        <v>0.6805825529848236</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8409571676229619</v>
+        <v>0.8312133742478228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45952</v>
+        <v>45983</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.7504</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7586678513220122</v>
+        <v>0.7034293678926059</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6871630070790203</v>
+        <v>0.6315613651378658</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8301305372437466</v>
+        <v>0.7771060511743529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45953</v>
+        <v>45984</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7239</v>
+        <v>0.9456</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7545687671593851</v>
+        <v>0.9192215726632262</v>
       </c>
       <c r="D24" t="n">
-        <v>0.689828257493809</v>
+        <v>0.8448221486648156</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8254051560918306</v>
+        <v>0.9913755488158066</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45954</v>
+        <v>45985</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6772</v>
+        <v>0.7827</v>
       </c>
       <c r="C25" t="n">
-        <v>0.744404967272452</v>
+        <v>0.7790388022725322</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6741909370791626</v>
+        <v>0.7056934966576964</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8152833293046342</v>
+        <v>0.8583727249340628</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45955</v>
+        <v>45986</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6957</v>
+        <v>0.7897</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6886174001412492</v>
+        <v>0.7712610891777809</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6248510229296195</v>
+        <v>0.695990370031355</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7559307649105098</v>
+        <v>0.8503975620385295</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45956</v>
+        <v>45987</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9815</v>
+        <v>0.7988</v>
       </c>
       <c r="C27" t="n">
-        <v>0.90529975878361</v>
+        <v>0.7559392394343106</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8367697758725589</v>
+        <v>0.679848199727027</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9703449291018084</v>
+        <v>0.8312837679602365</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45957</v>
+        <v>45988</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7563</v>
+        <v>0.7806999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7689352476349489</v>
+        <v>0.7571642274190483</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7022202088281894</v>
+        <v>0.6829860092854924</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8349667237012942</v>
+        <v>0.8342023119214578</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45958</v>
+        <v>45989</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7131</v>
+        <v>0.7651</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7609568612421083</v>
+        <v>0.7434779827241992</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6912329561791235</v>
+        <v>0.6690314304681686</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8256089594835244</v>
+        <v>0.8201776232754053</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45959</v>
+        <v>45990</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7399</v>
+        <v>0.739</v>
       </c>
       <c r="C30" t="n">
-        <v>0.746115250512691</v>
+        <v>0.6892815433680077</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6800207620206205</v>
+        <v>0.6104220954036004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8144722810663961</v>
+        <v>0.7630470513100559</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45960</v>
+        <v>45991</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8148</v>
+        <v>0.8759</v>
       </c>
       <c r="C31" t="n">
-        <v>0.742016166349124</v>
+        <v>0.9050737481390838</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6735654267330138</v>
+        <v>0.8300558696631303</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8103304810158443</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.7318523664624149</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.6639286053865774</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.8023354771676102</v>
+        <v>0.9839243821683603</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J305"/>
+  <dimension ref="A1:J335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12018,6 +11993,1026 @@
       </c>
       <c r="J305" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1494</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.7887999999999999</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1</v>
+      </c>
+      <c r="G306" t="n">
+        <v>1</v>
+      </c>
+      <c r="H306" t="n">
+        <v>11</v>
+      </c>
+      <c r="I306" t="n">
+        <v>44</v>
+      </c>
+      <c r="J306" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D307" t="n">
+        <v>988</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.9841</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1</v>
+      </c>
+      <c r="G307" t="n">
+        <v>2</v>
+      </c>
+      <c r="H307" t="n">
+        <v>11</v>
+      </c>
+      <c r="I307" t="n">
+        <v>44</v>
+      </c>
+      <c r="J307" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>3851</v>
+      </c>
+      <c r="D308" t="n">
+        <v>3190</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.8284</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2</v>
+      </c>
+      <c r="G308" t="n">
+        <v>3</v>
+      </c>
+      <c r="H308" t="n">
+        <v>11</v>
+      </c>
+      <c r="I308" t="n">
+        <v>45</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>3960</v>
+      </c>
+      <c r="D309" t="n">
+        <v>3210</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.8106</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2</v>
+      </c>
+      <c r="G309" t="n">
+        <v>4</v>
+      </c>
+      <c r="H309" t="n">
+        <v>11</v>
+      </c>
+      <c r="I309" t="n">
+        <v>45</v>
+      </c>
+      <c r="J309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>3641</v>
+      </c>
+      <c r="D310" t="n">
+        <v>3017</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.8286</v>
+      </c>
+      <c r="F310" t="n">
+        <v>2</v>
+      </c>
+      <c r="G310" t="n">
+        <v>5</v>
+      </c>
+      <c r="H310" t="n">
+        <v>11</v>
+      </c>
+      <c r="I310" t="n">
+        <v>45</v>
+      </c>
+      <c r="J310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>4131</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3307</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.8005</v>
+      </c>
+      <c r="F311" t="n">
+        <v>2</v>
+      </c>
+      <c r="G311" t="n">
+        <v>6</v>
+      </c>
+      <c r="H311" t="n">
+        <v>11</v>
+      </c>
+      <c r="I311" t="n">
+        <v>45</v>
+      </c>
+      <c r="J311" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>3489</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2725</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="F312" t="n">
+        <v>2</v>
+      </c>
+      <c r="G312" t="n">
+        <v>7</v>
+      </c>
+      <c r="H312" t="n">
+        <v>11</v>
+      </c>
+      <c r="I312" t="n">
+        <v>45</v>
+      </c>
+      <c r="J312" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>2401</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1813</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.7551</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2</v>
+      </c>
+      <c r="G313" t="n">
+        <v>8</v>
+      </c>
+      <c r="H313" t="n">
+        <v>11</v>
+      </c>
+      <c r="I313" t="n">
+        <v>45</v>
+      </c>
+      <c r="J313" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1158</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1143</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2</v>
+      </c>
+      <c r="G314" t="n">
+        <v>9</v>
+      </c>
+      <c r="H314" t="n">
+        <v>11</v>
+      </c>
+      <c r="I314" t="n">
+        <v>45</v>
+      </c>
+      <c r="J314" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>4119</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3264</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.7924</v>
+      </c>
+      <c r="F315" t="n">
+        <v>3</v>
+      </c>
+      <c r="G315" t="n">
+        <v>10</v>
+      </c>
+      <c r="H315" t="n">
+        <v>11</v>
+      </c>
+      <c r="I315" t="n">
+        <v>46</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>4522</v>
+      </c>
+      <c r="D316" t="n">
+        <v>3495</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.7729</v>
+      </c>
+      <c r="F316" t="n">
+        <v>3</v>
+      </c>
+      <c r="G316" t="n">
+        <v>11</v>
+      </c>
+      <c r="H316" t="n">
+        <v>11</v>
+      </c>
+      <c r="I316" t="n">
+        <v>46</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>4090</v>
+      </c>
+      <c r="D317" t="n">
+        <v>2953</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="F317" t="n">
+        <v>3</v>
+      </c>
+      <c r="G317" t="n">
+        <v>12</v>
+      </c>
+      <c r="H317" t="n">
+        <v>11</v>
+      </c>
+      <c r="I317" t="n">
+        <v>46</v>
+      </c>
+      <c r="J317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>3920</v>
+      </c>
+      <c r="D318" t="n">
+        <v>3020</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.7704</v>
+      </c>
+      <c r="F318" t="n">
+        <v>3</v>
+      </c>
+      <c r="G318" t="n">
+        <v>13</v>
+      </c>
+      <c r="H318" t="n">
+        <v>11</v>
+      </c>
+      <c r="I318" t="n">
+        <v>46</v>
+      </c>
+      <c r="J318" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>3598</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2724</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.7571</v>
+      </c>
+      <c r="F319" t="n">
+        <v>3</v>
+      </c>
+      <c r="G319" t="n">
+        <v>14</v>
+      </c>
+      <c r="H319" t="n">
+        <v>11</v>
+      </c>
+      <c r="I319" t="n">
+        <v>46</v>
+      </c>
+      <c r="J319" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1570</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.8229</v>
+      </c>
+      <c r="F320" t="n">
+        <v>3</v>
+      </c>
+      <c r="G320" t="n">
+        <v>15</v>
+      </c>
+      <c r="H320" t="n">
+        <v>11</v>
+      </c>
+      <c r="I320" t="n">
+        <v>46</v>
+      </c>
+      <c r="J320" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D321" t="n">
+        <v>931</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.9127</v>
+      </c>
+      <c r="F321" t="n">
+        <v>3</v>
+      </c>
+      <c r="G321" t="n">
+        <v>16</v>
+      </c>
+      <c r="H321" t="n">
+        <v>11</v>
+      </c>
+      <c r="I321" t="n">
+        <v>46</v>
+      </c>
+      <c r="J321" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>3662</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2701</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.7376</v>
+      </c>
+      <c r="F322" t="n">
+        <v>4</v>
+      </c>
+      <c r="G322" t="n">
+        <v>17</v>
+      </c>
+      <c r="H322" t="n">
+        <v>11</v>
+      </c>
+      <c r="I322" t="n">
+        <v>47</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>4149</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3242</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.7814</v>
+      </c>
+      <c r="F323" t="n">
+        <v>4</v>
+      </c>
+      <c r="G323" t="n">
+        <v>18</v>
+      </c>
+      <c r="H323" t="n">
+        <v>11</v>
+      </c>
+      <c r="I323" t="n">
+        <v>47</v>
+      </c>
+      <c r="J323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>3724</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2866</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.7696</v>
+      </c>
+      <c r="F324" t="n">
+        <v>4</v>
+      </c>
+      <c r="G324" t="n">
+        <v>19</v>
+      </c>
+      <c r="H324" t="n">
+        <v>11</v>
+      </c>
+      <c r="I324" t="n">
+        <v>47</v>
+      </c>
+      <c r="J324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1838</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1599</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F325" t="n">
+        <v>4</v>
+      </c>
+      <c r="G325" t="n">
+        <v>20</v>
+      </c>
+      <c r="H325" t="n">
+        <v>11</v>
+      </c>
+      <c r="I325" t="n">
+        <v>47</v>
+      </c>
+      <c r="J325" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>3011</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2305</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.7655</v>
+      </c>
+      <c r="F326" t="n">
+        <v>4</v>
+      </c>
+      <c r="G326" t="n">
+        <v>21</v>
+      </c>
+      <c r="H326" t="n">
+        <v>11</v>
+      </c>
+      <c r="I326" t="n">
+        <v>47</v>
+      </c>
+      <c r="J326" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45983</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1377</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.7504</v>
+      </c>
+      <c r="F327" t="n">
+        <v>4</v>
+      </c>
+      <c r="G327" t="n">
+        <v>22</v>
+      </c>
+      <c r="H327" t="n">
+        <v>11</v>
+      </c>
+      <c r="I327" t="n">
+        <v>47</v>
+      </c>
+      <c r="J327" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45984</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1121</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.9456</v>
+      </c>
+      <c r="F328" t="n">
+        <v>4</v>
+      </c>
+      <c r="G328" t="n">
+        <v>23</v>
+      </c>
+      <c r="H328" t="n">
+        <v>11</v>
+      </c>
+      <c r="I328" t="n">
+        <v>47</v>
+      </c>
+      <c r="J328" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>3682</v>
+      </c>
+      <c r="D329" t="n">
+        <v>2882</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.7827</v>
+      </c>
+      <c r="F329" t="n">
+        <v>5</v>
+      </c>
+      <c r="G329" t="n">
+        <v>24</v>
+      </c>
+      <c r="H329" t="n">
+        <v>11</v>
+      </c>
+      <c r="I329" t="n">
+        <v>48</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>3158</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2494</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.7897</v>
+      </c>
+      <c r="F330" t="n">
+        <v>5</v>
+      </c>
+      <c r="G330" t="n">
+        <v>25</v>
+      </c>
+      <c r="H330" t="n">
+        <v>11</v>
+      </c>
+      <c r="I330" t="n">
+        <v>48</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>3240</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2588</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.7988</v>
+      </c>
+      <c r="F331" t="n">
+        <v>5</v>
+      </c>
+      <c r="G331" t="n">
+        <v>26</v>
+      </c>
+      <c r="H331" t="n">
+        <v>11</v>
+      </c>
+      <c r="I331" t="n">
+        <v>48</v>
+      </c>
+      <c r="J331" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>3320</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2592</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.7806999999999999</v>
+      </c>
+      <c r="F332" t="n">
+        <v>5</v>
+      </c>
+      <c r="G332" t="n">
+        <v>27</v>
+      </c>
+      <c r="H332" t="n">
+        <v>11</v>
+      </c>
+      <c r="I332" t="n">
+        <v>48</v>
+      </c>
+      <c r="J332" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>3278</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2508</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.7651</v>
+      </c>
+      <c r="F333" t="n">
+        <v>5</v>
+      </c>
+      <c r="G333" t="n">
+        <v>28</v>
+      </c>
+      <c r="H333" t="n">
+        <v>11</v>
+      </c>
+      <c r="I333" t="n">
+        <v>48</v>
+      </c>
+      <c r="J333" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1467</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="F334" t="n">
+        <v>5</v>
+      </c>
+      <c r="G334" t="n">
+        <v>29</v>
+      </c>
+      <c r="H334" t="n">
+        <v>11</v>
+      </c>
+      <c r="I334" t="n">
+        <v>48</v>
+      </c>
+      <c r="J334" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>CONTROLE</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>1064</v>
+      </c>
+      <c r="D335" t="n">
+        <v>932</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.8759</v>
+      </c>
+      <c r="F335" t="n">
+        <v>5</v>
+      </c>
+      <c r="G335" t="n">
+        <v>30</v>
+      </c>
+      <c r="H335" t="n">
+        <v>11</v>
+      </c>
+      <c r="I335" t="n">
+        <v>48</v>
+      </c>
+      <c r="J335" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -12031,7 +13026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12089,448 +13084,6 @@
         <is>
           <t>Week_day</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45962</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1494</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7887999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11</v>
-      </c>
-      <c r="I2" t="n">
-        <v>44</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45963</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1004</v>
-      </c>
-      <c r="D3" t="n">
-        <v>988</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9841</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>44</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3851</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3190</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8284</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3960</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3210</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8106</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>45</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45966</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3641</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3017</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8286</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>45</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45967</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4131</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3307</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8005</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11</v>
-      </c>
-      <c r="I7" t="n">
-        <v>45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45968</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3489</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2725</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.781</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45969</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2401</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1813</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7551</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I9" t="n">
-        <v>45</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45970</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1158</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1143</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.987</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11</v>
-      </c>
-      <c r="I10" t="n">
-        <v>45</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4119</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3264</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.7924</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" t="n">
-        <v>11</v>
-      </c>
-      <c r="I11" t="n">
-        <v>46</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45972</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>4522</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3495</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.7729</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
-      </c>
-      <c r="I12" t="n">
-        <v>46</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45973</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>4090</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2953</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12</v>
-      </c>
-      <c r="H13" t="n">
-        <v>11</v>
-      </c>
-      <c r="I13" t="n">
-        <v>46</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45974</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CONTROLE</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>3836</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3019</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.787</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11</v>
-      </c>
-      <c r="I14" t="n">
-        <v>46</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -12571,7 +13124,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0484</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="3">
@@ -12581,7 +13134,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.063</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="4">
@@ -12591,7 +13144,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.064</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="5">
@@ -12601,7 +13154,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7097</v>
+        <v>0.9333</v>
       </c>
     </row>
   </sheetData>
@@ -12615,7 +13168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12647,422 +13200,436 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7459</v>
+        <v>0.8371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6706</v>
+        <v>0.7664</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8232</v>
+        <v>0.9107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45963</v>
+        <v>45993</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9617</v>
+        <v>0.8305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8857</v>
+        <v>0.7516</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45964</v>
+        <v>45994</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8215</v>
+        <v>0.8158</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7475000000000001</v>
+        <v>0.7451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8958</v>
+        <v>0.8865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45965</v>
+        <v>45995</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8137</v>
+        <v>0.8191000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.739</v>
+        <v>0.7476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8842</v>
+        <v>0.8903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45966</v>
+        <v>45996</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7984</v>
+        <v>0.8034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7207</v>
+        <v>0.723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8677</v>
+        <v>0.8751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45967</v>
+        <v>45997</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7996</v>
+        <v>0.7546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7247</v>
+        <v>0.6817</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8812</v>
+        <v>0.8307</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45968</v>
+        <v>45998</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7859</v>
+        <v>0.9655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7122000000000001</v>
+        <v>0.8917</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45969</v>
+        <v>45999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7317</v>
+        <v>0.8235</v>
       </c>
       <c r="C9" t="n">
-        <v>0.658</v>
+        <v>0.7479</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8943</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45970</v>
+        <v>46000</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9475</v>
+        <v>0.8169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8704</v>
+        <v>0.745</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.8911</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45971</v>
+        <v>46001</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8073</v>
+        <v>0.8022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7359</v>
+        <v>0.7272999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8822</v>
+        <v>0.8737</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45972</v>
+        <v>46002</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7996</v>
+        <v>0.8055</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7248</v>
+        <v>0.7341</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8711</v>
+        <v>0.8786</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45973</v>
+        <v>46003</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7842</v>
+        <v>0.7897999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7101</v>
+        <v>0.7096</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8606</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45974</v>
+        <v>46004</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7855</v>
+        <v>0.741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7121</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8596</v>
+        <v>0.8132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45975</v>
+        <v>46005</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7718</v>
+        <v>0.9519</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6991000000000001</v>
+        <v>0.8773</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45976</v>
+        <v>46006</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7176</v>
+        <v>0.8099</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6388</v>
+        <v>0.74</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7929</v>
+        <v>0.8844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45977</v>
+        <v>46007</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9334</v>
+        <v>0.8033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.86</v>
+        <v>0.7277</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45978</v>
+        <v>46008</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7932</v>
+        <v>0.7886</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7159</v>
+        <v>0.7096</v>
       </c>
       <c r="D18" t="n">
-        <v>0.867</v>
+        <v>0.8637</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45979</v>
+        <v>46009</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7854</v>
+        <v>0.7919</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7186</v>
+        <v>0.7161999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8645</v>
+        <v>0.8658</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45980</v>
+        <v>46010</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7701</v>
+        <v>0.7762</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6973</v>
+        <v>0.697</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8442</v>
+        <v>0.8492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45981</v>
+        <v>46011</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7713</v>
+        <v>0.7274</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6892</v>
+        <v>0.6522</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8431999999999999</v>
+        <v>0.7968</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45982</v>
+        <v>46012</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.9383</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6851</v>
+        <v>0.8666</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45983</v>
+        <v>46013</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7034</v>
+        <v>0.7963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6282</v>
+        <v>0.7258</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7834</v>
+        <v>0.8699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45984</v>
+        <v>46014</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9192</v>
+        <v>0.7897</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8487</v>
+        <v>0.7134</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9974</v>
+        <v>0.8673</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45985</v>
+        <v>46015</v>
       </c>
       <c r="B25" t="n">
-        <v>0.779</v>
+        <v>0.775</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7075</v>
+        <v>0.6983</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8509</v>
+        <v>0.8486</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45986</v>
+        <v>46016</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7713</v>
+        <v>0.7783</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6917</v>
+        <v>0.7034</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8459</v>
+        <v>0.8528</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45987</v>
+        <v>46017</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7559</v>
+        <v>0.7625999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6863</v>
+        <v>0.6884</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8357</v>
+        <v>0.8341</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45988</v>
+        <v>46018</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7572</v>
+        <v>0.7138</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6808</v>
+        <v>0.6403</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8292</v>
+        <v>0.7894</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45989</v>
+        <v>46019</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7435</v>
+        <v>0.9247</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6583</v>
+        <v>0.8561</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45990</v>
+        <v>46020</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6893</v>
+        <v>0.7882</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6189</v>
+        <v>0.7081</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7625999999999999</v>
+        <v>0.8652</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45991</v>
+        <v>46021</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9051</v>
+        <v>0.7816</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8275</v>
+        <v>0.7038</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9836</v>
+        <v>0.8564000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7669</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6922</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8393</v>
       </c>
     </row>
   </sheetData>
